--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nrg4-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nrg4-Erbb4.xlsx
@@ -534,22 +534,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.268874</v>
+        <v>0.4912533333333333</v>
       </c>
       <c r="H2">
-        <v>3.806622</v>
+        <v>1.47376</v>
       </c>
       <c r="I2">
-        <v>0.1611895180755135</v>
+        <v>0.1305673009957422</v>
       </c>
       <c r="J2">
-        <v>0.1611895180755135</v>
+        <v>0.1305673009957422</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,19 +567,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P2">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q2">
-        <v>0.013068133326</v>
+        <v>0.00505941808</v>
       </c>
       <c r="R2">
-        <v>0.117613199934</v>
+        <v>0.04553476272</v>
       </c>
       <c r="S2">
-        <v>0.1581289899977501</v>
+        <v>0.1280882012657707</v>
       </c>
       <c r="T2">
-        <v>0.1581289899977501</v>
+        <v>0.1280882012657706</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.268874</v>
+        <v>0.4912533333333333</v>
       </c>
       <c r="H3">
-        <v>3.806622</v>
+        <v>1.47376</v>
       </c>
       <c r="I3">
-        <v>0.1611895180755135</v>
+        <v>0.1305673009957422</v>
       </c>
       <c r="J3">
-        <v>0.1611895180755135</v>
+        <v>0.1305673009957422</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q3">
-        <v>0.000252928884</v>
+        <v>9.792316444444445E-05</v>
       </c>
       <c r="R3">
-        <v>0.002276359956</v>
+        <v>0.00088130848</v>
       </c>
       <c r="S3">
-        <v>0.003060528077763361</v>
+        <v>0.002479099729971547</v>
       </c>
       <c r="T3">
-        <v>0.003060528077763361</v>
+        <v>0.002479099729971546</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2760593333333334</v>
+        <v>0.2760593333333333</v>
       </c>
       <c r="H4">
-        <v>0.8281780000000001</v>
+        <v>0.828178</v>
       </c>
       <c r="I4">
-        <v>0.03506878610504079</v>
+        <v>0.07337216792697034</v>
       </c>
       <c r="J4">
-        <v>0.03506878610504079</v>
+        <v>0.07337216792697034</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,19 +691,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P4">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q4">
-        <v>0.002843135074000001</v>
+        <v>0.002843135074</v>
       </c>
       <c r="R4">
-        <v>0.02558821566600001</v>
+        <v>0.025588215666</v>
       </c>
       <c r="S4">
-        <v>0.03440293012501811</v>
+        <v>0.07197904024256557</v>
       </c>
       <c r="T4">
-        <v>0.03440293012501811</v>
+        <v>0.07197904024256556</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2760593333333334</v>
+        <v>0.2760593333333333</v>
       </c>
       <c r="H5">
-        <v>0.8281780000000001</v>
+        <v>0.828178</v>
       </c>
       <c r="I5">
-        <v>0.03506878610504079</v>
+        <v>0.07337216792697034</v>
       </c>
       <c r="J5">
-        <v>0.03506878610504079</v>
+        <v>0.07337216792697034</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q5">
-        <v>5.502782711111112E-05</v>
+        <v>5.502782711111111E-05</v>
       </c>
       <c r="R5">
-        <v>0.0004952504440000001</v>
+        <v>0.000495250444</v>
       </c>
       <c r="S5">
-        <v>0.0006658559800226827</v>
+        <v>0.001393127684404771</v>
       </c>
       <c r="T5">
-        <v>0.0006658559800226827</v>
+        <v>0.001393127684404771</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>3.986295666666667</v>
+        <v>1.058191</v>
       </c>
       <c r="H6">
-        <v>11.958887</v>
+        <v>3.174573</v>
       </c>
       <c r="I6">
-        <v>0.5063931307730379</v>
+        <v>0.2812502907013058</v>
       </c>
       <c r="J6">
-        <v>0.5063931307730378</v>
+        <v>0.2812502907013057</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,19 +815,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P6">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q6">
-        <v>0.041054859071</v>
+        <v>0.010898309109</v>
       </c>
       <c r="R6">
-        <v>0.3694937316390001</v>
+        <v>0.098084781981</v>
       </c>
       <c r="S6">
-        <v>0.4967781730907939</v>
+        <v>0.2759101518272185</v>
       </c>
       <c r="T6">
-        <v>0.4967781730907938</v>
+        <v>0.2759101518272184</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>3.986295666666667</v>
+        <v>1.058191</v>
       </c>
       <c r="H7">
-        <v>11.958887</v>
+        <v>3.174573</v>
       </c>
       <c r="I7">
-        <v>0.5063931307730379</v>
+        <v>0.2812502907013058</v>
       </c>
       <c r="J7">
-        <v>0.5063931307730378</v>
+        <v>0.2812502907013057</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -880,16 +880,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q7">
-        <v>0.000794601602888889</v>
+        <v>0.0002109327393333334</v>
       </c>
       <c r="R7">
-        <v>0.007151414426000001</v>
+        <v>0.001898394654</v>
       </c>
       <c r="S7">
-        <v>0.00961495768224406</v>
+        <v>0.005340138874087343</v>
       </c>
       <c r="T7">
-        <v>0.009614957682244058</v>
+        <v>0.005340138874087342</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3092586666666667</v>
+        <v>0.306452</v>
       </c>
       <c r="H8">
-        <v>0.927776</v>
+        <v>0.9193560000000001</v>
       </c>
       <c r="I8">
-        <v>0.03928621395085395</v>
+        <v>0.08145005399402996</v>
       </c>
       <c r="J8">
-        <v>0.03928621395085395</v>
+        <v>0.08145005399402996</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -939,19 +939,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P8">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q8">
-        <v>0.003185055008</v>
+        <v>0.003156149148</v>
       </c>
       <c r="R8">
-        <v>0.02866549507200001</v>
+        <v>0.028405342332</v>
       </c>
       <c r="S8">
-        <v>0.03854028107444148</v>
+        <v>0.07990355034937431</v>
       </c>
       <c r="T8">
-        <v>0.03854028107444148</v>
+        <v>0.0799035503493743</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3092586666666667</v>
+        <v>0.306452</v>
       </c>
       <c r="H9">
-        <v>0.927776</v>
+        <v>0.9193560000000001</v>
       </c>
       <c r="I9">
-        <v>0.03928621395085395</v>
+        <v>0.08145005399402996</v>
       </c>
       <c r="J9">
-        <v>0.03928621395085395</v>
+        <v>0.08145005399402996</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1004,16 +1004,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q9">
-        <v>6.164556088888889E-05</v>
+        <v>6.108609866666667E-05</v>
       </c>
       <c r="R9">
-        <v>0.000554810048</v>
+        <v>0.0005497748880000001</v>
       </c>
       <c r="S9">
-        <v>0.0007459328764124675</v>
+        <v>0.001546503644655657</v>
       </c>
       <c r="T9">
-        <v>0.0007459328764124675</v>
+        <v>0.001546503644655657</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.031451</v>
+        <v>1.630497333333333</v>
       </c>
       <c r="H10">
-        <v>6.094353</v>
+        <v>4.891492</v>
       </c>
       <c r="I10">
-        <v>0.2580623510955539</v>
+        <v>0.4333601863819517</v>
       </c>
       <c r="J10">
-        <v>0.2580623510955539</v>
+        <v>0.4333601863819517</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1063,19 +1063,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P10">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q10">
-        <v>0.020921913849</v>
+        <v>0.016792492036</v>
       </c>
       <c r="R10">
-        <v>0.188297224641</v>
+        <v>0.151132428324</v>
       </c>
       <c r="S10">
-        <v>0.253162484895994</v>
+        <v>0.4251319154990685</v>
       </c>
       <c r="T10">
-        <v>0.253162484895994</v>
+        <v>0.4251319154990684</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.031451</v>
+        <v>1.630497333333333</v>
       </c>
       <c r="H11">
-        <v>6.094353</v>
+        <v>4.891492</v>
       </c>
       <c r="I11">
-        <v>0.2580623510955539</v>
+        <v>0.4333601863819517</v>
       </c>
       <c r="J11">
-        <v>0.2580623510955539</v>
+        <v>0.4333601863819517</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1128,16 +1128,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q11">
-        <v>0.0004049358993333334</v>
+        <v>0.0003250124684444444</v>
       </c>
       <c r="R11">
-        <v>0.003644423094</v>
+        <v>0.002925112216</v>
       </c>
       <c r="S11">
-        <v>0.004899866199559969</v>
+        <v>0.008228270882883222</v>
       </c>
       <c r="T11">
-        <v>0.004899866199559969</v>
+        <v>0.008228270882883222</v>
       </c>
     </row>
   </sheetData>
